--- a/src/visualization/Test Cases.xlsx
+++ b/src/visualization/Test Cases.xlsx
@@ -11,24 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Remove</t>
-  </si>
-  <si>
-    <t>Add</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="93">
+  <si>
+    <t>start_name</t>
+  </si>
+  <si>
+    <t>end_name</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>start_url</t>
+  </si>
+  <si>
+    <t>end_url</t>
   </si>
   <si>
     <t>Intermediate Reasoning</t>
@@ -52,6 +55,12 @@
     <t>Vegetable broth</t>
   </si>
   <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/a29786303/risotto-rice-recipe/</t>
+  </si>
+  <si>
+    <t>https://cookieandkate.com/easy-brown-rice-risotto-with-mushrooms-and-fresh-oregano/</t>
+  </si>
+  <si>
     <t>Add Protein</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>Butternut squash</t>
   </si>
   <si>
+    <t>https://www.chilipeppermadness.com/recipes/chipotle-chili/</t>
+  </si>
+  <si>
+    <t>https://cookieandkate.com/butternut-squash-chipotle-chili-with-avocado/</t>
+  </si>
+  <si>
     <t>Beef Stroganoff</t>
   </si>
   <si>
@@ -79,6 +94,12 @@
     <t>Portobello mushroom</t>
   </si>
   <si>
+    <t>https://www.allrecipes.com/recipe/60923/portobello-mushroom-stroganoff/</t>
+  </si>
+  <si>
+    <t>https://www.recipetineats.com/beef-stroganoff/</t>
+  </si>
+  <si>
     <t>Ragu with Bolognese</t>
   </si>
   <si>
@@ -88,6 +109,12 @@
     <t>Lentils</t>
   </si>
   <si>
+    <t>https://www.bonappetit.com/recipe/bas-best-bolognese</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/256885/lentil-bolognese/</t>
+  </si>
+  <si>
     <t>Sloppy Joes</t>
   </si>
   <si>
@@ -97,6 +124,12 @@
     <t>Tempeh</t>
   </si>
   <si>
+    <t>https://www.allrecipes.com/recipe/24264/sloppy-joes-ii/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/163867/vegetarian-sloppy-joes/</t>
+  </si>
+  <si>
     <t>Beef Pot Pie</t>
   </si>
   <si>
@@ -112,6 +145,12 @@
     <t>Chicken</t>
   </si>
   <si>
+    <t>https://www.allrecipes.com/recipe/22851/beef-pot-pie-iii/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/26317/chicken-pot-pie-ix/</t>
+  </si>
+  <si>
     <t>Mushroom Pulled Pork</t>
   </si>
   <si>
@@ -124,6 +163,12 @@
     <t>Pork</t>
   </si>
   <si>
+    <t>https://www.liveeatlearn.com/mushroom-pulled-pork/</t>
+  </si>
+  <si>
+    <t>https://www.simplyrecipes.com/recipes/pulled_pork_sandwich/</t>
+  </si>
+  <si>
     <t>Oyster mushrooms</t>
   </si>
   <si>
@@ -136,6 +181,12 @@
     <t>Chicken thigh or drumstick</t>
   </si>
   <si>
+    <t>https://www.liveeatlearn.com/buttermilk-fried-mushrooms/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/220128/chef-johns-buttermilk-fried-chicken/</t>
+  </si>
+  <si>
     <t>Keto Beef Stroganoff</t>
   </si>
   <si>
@@ -148,6 +199,9 @@
     <t>Cauliflower rice</t>
   </si>
   <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/a30707105/keto-beef-stroganoff-recipe/</t>
+  </si>
+  <si>
     <t>Fried Chicken</t>
   </si>
   <si>
@@ -160,6 +214,12 @@
     <t>Pork rind</t>
   </si>
   <si>
+    <t>https://www.allrecipes.com/recipe/8805/crispy-fried-chicken/</t>
+  </si>
+  <si>
+    <t>https://www.delish.com/cooking/nutrition/a29537911/keto-fried-chicken-recipe/</t>
+  </si>
+  <si>
     <t>Mac and Cheese</t>
   </si>
   <si>
@@ -172,6 +232,12 @@
     <t>Cauliflower</t>
   </si>
   <si>
+    <t>https://www.thechunkychef.com/family-favorite-baked-mac-and-cheese/</t>
+  </si>
+  <si>
+    <t>https://www.delish.com/cooking/nutrition/a29024668/keto-mac-and-cheese-recipe/</t>
+  </si>
+  <si>
     <t>Stuffed Cabbage Rolls</t>
   </si>
   <si>
@@ -181,6 +247,12 @@
     <t>Sugar, rice</t>
   </si>
   <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/a23481075/stuffed-cabbage-rolls/</t>
+  </si>
+  <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/a30779229/keto-stuffed-cabbage-recipe/</t>
+  </si>
+  <si>
     <t>Philly Cheesesteak</t>
   </si>
   <si>
@@ -193,6 +265,12 @@
     <t>Cabbage</t>
   </si>
   <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/recipes/a54006/easy-homemade-philly-cheesesteak-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/a26279552/philly-cheesesteak-cabbage-wraps-recipe/</t>
+  </si>
+  <si>
     <t>Ravioli Bake</t>
   </si>
   <si>
@@ -203,6 +281,12 @@
   </si>
   <si>
     <t>Zucchini</t>
+  </si>
+  <si>
+    <t>https://www.bettycrocker.com/recipes/easy-ravioli-bake/42e1f452-b805-40a7-a2b4-a8e30d23aa4e</t>
+  </si>
+  <si>
+    <t>https://www.delish.com/cooking/recipe-ideas/recipes/a48392/zucchini-ravioli-recipe/</t>
   </si>
   <si>
     <t>Reverse Keto</t>
@@ -212,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -223,6 +307,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -243,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,6 +343,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -469,9 +567,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="56.63"/>
-    <col customWidth="1" min="3" max="3" width="56.25"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
+    <col customWidth="1" min="1" max="1" width="56.63"/>
+    <col customWidth="1" min="2" max="2" width="56.25"/>
+    <col customWidth="1" min="4" max="4" width="18.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,39 +594,45 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -536,482 +640,564 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
+      <c r="G17" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
+      <c r="A18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>57</v>
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
+        <v>88</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="C4"/>
-    <hyperlink r:id="rId7" ref="B5"/>
-    <hyperlink r:id="rId8" ref="C5"/>
-    <hyperlink r:id="rId9" ref="B6"/>
-    <hyperlink r:id="rId10" ref="C6"/>
-    <hyperlink r:id="rId11" ref="B7"/>
-    <hyperlink r:id="rId12" ref="C7"/>
-    <hyperlink r:id="rId13" ref="B8"/>
-    <hyperlink r:id="rId14" ref="C8"/>
-    <hyperlink r:id="rId15" ref="B9"/>
-    <hyperlink r:id="rId16" ref="C9"/>
-    <hyperlink r:id="rId17" ref="B10"/>
-    <hyperlink r:id="rId18" ref="C10"/>
-    <hyperlink r:id="rId19" ref="B11"/>
-    <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="B12"/>
-    <hyperlink r:id="rId22" ref="C12"/>
-    <hyperlink r:id="rId23" ref="B13"/>
-    <hyperlink r:id="rId24" ref="C13"/>
-    <hyperlink r:id="rId25" ref="B14"/>
-    <hyperlink r:id="rId26" ref="C14"/>
-    <hyperlink r:id="rId27" ref="B15"/>
-    <hyperlink r:id="rId28" ref="C15"/>
-    <hyperlink r:id="rId29" ref="B16"/>
-    <hyperlink r:id="rId30" ref="C16"/>
-    <hyperlink r:id="rId31" ref="B17"/>
-    <hyperlink r:id="rId32" ref="C17"/>
-    <hyperlink r:id="rId33" ref="B18"/>
-    <hyperlink r:id="rId34" ref="C18"/>
-    <hyperlink r:id="rId35" ref="B19"/>
-    <hyperlink r:id="rId36" ref="C19"/>
-    <hyperlink r:id="rId37" ref="B20"/>
-    <hyperlink r:id="rId38" ref="C20"/>
-    <hyperlink r:id="rId39" ref="B21"/>
-    <hyperlink r:id="rId40" ref="C21"/>
-    <hyperlink r:id="rId41" ref="B22"/>
-    <hyperlink r:id="rId42" ref="C22"/>
-    <hyperlink r:id="rId43" ref="B23"/>
-    <hyperlink r:id="rId44" ref="C23"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="F2"/>
+    <hyperlink r:id="rId4" ref="G2"/>
+    <hyperlink r:id="rId5" ref="A3"/>
+    <hyperlink r:id="rId6" ref="B3"/>
+    <hyperlink r:id="rId7" ref="F3"/>
+    <hyperlink r:id="rId8" ref="G3"/>
+    <hyperlink r:id="rId9" ref="A4"/>
+    <hyperlink r:id="rId10" ref="B4"/>
+    <hyperlink r:id="rId11" ref="F4"/>
+    <hyperlink r:id="rId12" ref="G4"/>
+    <hyperlink r:id="rId13" ref="A5"/>
+    <hyperlink r:id="rId14" ref="B5"/>
+    <hyperlink r:id="rId15" ref="F5"/>
+    <hyperlink r:id="rId16" ref="G5"/>
+    <hyperlink r:id="rId17" ref="A6"/>
+    <hyperlink r:id="rId18" ref="B6"/>
+    <hyperlink r:id="rId19" ref="F6"/>
+    <hyperlink r:id="rId20" ref="G6"/>
+    <hyperlink r:id="rId21" ref="A7"/>
+    <hyperlink r:id="rId22" ref="B7"/>
+    <hyperlink r:id="rId23" ref="F7"/>
+    <hyperlink r:id="rId24" ref="G7"/>
+    <hyperlink r:id="rId25" ref="A8"/>
+    <hyperlink r:id="rId26" ref="B8"/>
+    <hyperlink r:id="rId27" ref="F8"/>
+    <hyperlink r:id="rId28" ref="G8"/>
+    <hyperlink r:id="rId29" ref="A9"/>
+    <hyperlink r:id="rId30" ref="B9"/>
+    <hyperlink r:id="rId31" ref="F9"/>
+    <hyperlink r:id="rId32" ref="G9"/>
+    <hyperlink r:id="rId33" ref="A10"/>
+    <hyperlink r:id="rId34" ref="B10"/>
+    <hyperlink r:id="rId35" ref="F10"/>
+    <hyperlink r:id="rId36" ref="G10"/>
+    <hyperlink r:id="rId37" ref="A11"/>
+    <hyperlink r:id="rId38" ref="B11"/>
+    <hyperlink r:id="rId39" ref="F11"/>
+    <hyperlink r:id="rId40" ref="G11"/>
+    <hyperlink r:id="rId41" ref="A12"/>
+    <hyperlink r:id="rId42" ref="B12"/>
+    <hyperlink r:id="rId43" ref="F12"/>
+    <hyperlink r:id="rId44" ref="G12"/>
+    <hyperlink r:id="rId45" ref="A13"/>
+    <hyperlink r:id="rId46" ref="B13"/>
+    <hyperlink r:id="rId47" ref="F13"/>
+    <hyperlink r:id="rId48" ref="G13"/>
+    <hyperlink r:id="rId49" ref="A14"/>
+    <hyperlink r:id="rId50" ref="B14"/>
+    <hyperlink r:id="rId51" ref="F14"/>
+    <hyperlink r:id="rId52" ref="G14"/>
+    <hyperlink r:id="rId53" ref="A15"/>
+    <hyperlink r:id="rId54" ref="B15"/>
+    <hyperlink r:id="rId55" ref="F15"/>
+    <hyperlink r:id="rId56" ref="G15"/>
+    <hyperlink r:id="rId57" ref="A16"/>
+    <hyperlink r:id="rId58" ref="B16"/>
+    <hyperlink r:id="rId59" ref="F16"/>
+    <hyperlink r:id="rId60" ref="G16"/>
+    <hyperlink r:id="rId61" ref="A17"/>
+    <hyperlink r:id="rId62" ref="B17"/>
+    <hyperlink r:id="rId63" ref="F17"/>
+    <hyperlink r:id="rId64" ref="G17"/>
+    <hyperlink r:id="rId65" ref="A18"/>
+    <hyperlink r:id="rId66" ref="B18"/>
+    <hyperlink r:id="rId67" ref="F18"/>
+    <hyperlink r:id="rId68" ref="G18"/>
+    <hyperlink r:id="rId69" ref="A19"/>
+    <hyperlink r:id="rId70" ref="B19"/>
+    <hyperlink r:id="rId71" ref="F19"/>
+    <hyperlink r:id="rId72" ref="G19"/>
+    <hyperlink r:id="rId73" ref="A20"/>
+    <hyperlink r:id="rId74" ref="B20"/>
+    <hyperlink r:id="rId75" ref="F20"/>
+    <hyperlink r:id="rId76" ref="G20"/>
+    <hyperlink r:id="rId77" ref="A21"/>
+    <hyperlink r:id="rId78" ref="B21"/>
+    <hyperlink r:id="rId79" ref="F21"/>
+    <hyperlink r:id="rId80" ref="G21"/>
+    <hyperlink r:id="rId81" ref="A22"/>
+    <hyperlink r:id="rId82" ref="B22"/>
+    <hyperlink r:id="rId83" ref="F22"/>
+    <hyperlink r:id="rId84" ref="G22"/>
+    <hyperlink r:id="rId85" ref="A23"/>
+    <hyperlink r:id="rId86" ref="B23"/>
+    <hyperlink r:id="rId87" ref="F23"/>
+    <hyperlink r:id="rId88" ref="G23"/>
   </hyperlinks>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId89"/>
 </worksheet>
 </file>